--- a/medicine/Enfance/Valter_Unefäldt/Valter_Unefäldt.xlsx
+++ b/medicine/Enfance/Valter_Unefäldt/Valter_Unefäldt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Valter_Unef%C3%A4ldt</t>
+          <t>Valter_Unefäldt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Inge Valter Unefäldt, né le 23 mai 1923 à Södra Unnaryds socken dans le Småland [1] et mort le 29 mai 2011 à Södertälje[2] est un écrivain et traducteur suédois, auteur de quelques romans policiers de littérature d'enfance et de jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Inge Valter Unefäldt, né le 23 mai 1923 à Södra Unnaryds socken dans le Småland  et mort le 29 mai 2011 à Södertälje est un écrivain et traducteur suédois, auteur de quelques romans policiers de littérature d'enfance et de jeunesse.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Valter_Unef%C3%A4ldt</t>
+          <t>Valter_Unefäldt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,15 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Äh lägg av, säger Steffe [Oh arrête dit Steffe] (1971)
 Råttan på repet [Le Rat sur la corde] (1974)
 Polisen som vägrade svara [La police a refusé de répondre] (1979), écrit en collaboration avec Gösta Unefäldt
 Okej säger Steff [OK, dit Steffe] (1976)
-Att vara fjorton bast' [Être quatorze libériennes] (1992)
-Adaptation à la télévision
-1982 : Polisen som vägrade svara, mini-série suédoise, en 4 épisodes, réalisée par Arne Lifmark</t>
+Att vara fjorton bast' [Être quatorze libériennes] (1992)</t>
         </is>
       </c>
     </row>
@@ -529,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Valter_Unef%C3%A4ldt</t>
+          <t>Valter_Unefäldt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +556,48 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Adaptation à la télévision</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1982 : Polisen som vägrade svara, mini-série suédoise, en 4 épisodes, réalisée par Arne Lifmark</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Valter_Unefäldt</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Valter_Unef%C3%A4ldt</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1974 : Svenska Deckarakademin (sv) pour Råttan på repet
 1979 : Sherlock-priset (sv) pour Polisen som vägrade svara</t>
